--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(C)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(C).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(C)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(C).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cae
-Caesalpinia pulcherrima - Petit flambloyant ou orgueil de Chine
-Caesalpinia paraguariensis - Guayacan
-Cal
-Calceolaria - fam. Scrophulariacées
+          <t>Cae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Caesalpinia pulcherrima - Petit flambloyant ou orgueil de Chine
+Caesalpinia paraguariensis - Guayacan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Calceolaria - fam. Scrophulariacées
 Calceolaria crenatiflora - Calcéolaire
 Calceolaria herbeohybrida - Calcéolaire d'appartement ou Pantoufle
 Calceolaria integrifolia - Calcéolaire
 Calceolaria rugosa - Calcéolaire ligneuse
 Calymmanthium - fam. Cactacées (Cactus)
-Calymmanthium substerile
-Car
-Carica - fam. Carécacées (arbre fruitier)
+Calymmanthium substerile</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carica - fam. Carécacées (arbre fruitier)
 Carica papaya - Papayer
 Carludovica
 Carludovica druidae
@@ -536,40 +621,79 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cep
-Cephalocereus - fam. Cactacées (Cactus)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cep</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cephalocereus - fam. Cactacées (Cactus)
 Cephalocereus apicicephalium
 Cephalocereus columna-trajani
 Cephalocereus hoppenstedtii
-Cephalocereus senilis
-Cer
-Cereus - fam. Cactacées (Cactus)
+Cephalocereus senilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cereus - fam. Cactacées (Cactus)
 Cereus adelmarii
 Cereus aethiops
 Cereus albicaulis
@@ -597,8 +721,43 @@
 Cereus smithianus
 Cereus spegazzinii
 Cereus validus
-Cec
-Cecropia - fam. Cecropiaceaes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cec</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cecropia - fam. Cecropiaceaes
 Cecropia peltata
 Cecropia obtusifolia
 Cecropia insignis
@@ -606,74 +765,118 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ci</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cip
-Cipocereus - fam. Cactacées (Cactus)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cip</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cipocereus - fam. Cactacées (Cactus)
 Cipocereus bradei
 Cipocereus crassisepalus
 Cipocereus minensis
-Cipocereus pusilliflorus
-Cis
-Cissampelos
+Cipocereus pusilliflorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ci</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cis</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissampelos
 Cissampelos pareira
 Cissampelos pareira linnaeus
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Cl</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cle
-Cleistocactus - fam. Cactacées (Cactus)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cleistocactus - fam. Cactacées (Cactus)
 Cleistocactus acanthurus
 Cleistocactus angosturensis
 Cleistocactus baumannii
@@ -711,44 +914,117 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Co</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Col
-Coleocephalocereus - fam. Cactacées (Cactus)
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Coleocephalocereus - fam. Cactacées (Cactus)
 Coleocephalocereus aureus
 Coleocephalocereus buxbaumianus
 Coleocephalocereus fluminensis
 Coleocephalocereus goebelianus
 Coleocephalocereus pluricostatus
-Coleocephalocereus purpureus
-Con
-Consolea - fam. Cactacées (Cactus)
-Cop
-Copiapoa - fam. Cactacées (Cactus)
+Coleocephalocereus purpureus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Con</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Consolea - fam. Cactacées (Cactus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cop</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Copiapoa - fam. Cactacées (Cactus)
 Copiapoa calderana
 Copiapoa lembckei
 Copiapoa cinerascens
@@ -766,9 +1042,43 @@
 Copiapoa serpentisulcata
 Copiapoa solaris
 Copiapoa tocopillana
-Copiapoa varispinata
-Cor
-Corryocactus - fam. Cactacées (Cactus)
+Copiapoa varispinata</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cor</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corryocactus - fam. Cactacées (Cactus)
 Corryocactus brachypetalus
 Corryocactus brevistylus
 Corryocactus erectus
@@ -819,34 +1129,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Cy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyl
-Cylindropuntia  - fam. Cactacées (Cactus)
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cyl</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylindropuntia  - fam. Cactacées (Cactus)
  Portail de l’écologie   Portail de la botanique   Portail de l’Amérique                   </t>
         </is>
       </c>
